--- a/Dicionário_Microdados_Enem_2020.xlsx
+++ b/Dicionário_Microdados_Enem_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ENEM\2020\MICRODADOS\DICIONÁRIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/francofabion_johndeere_com/Documents/Desktop/Fabio/MBA_Engenharia_Dados/Bootcamp_EDC/Desafio_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE5A01-2ED4-4847-8E2A-8DB57A7622CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{43FE5A01-2ED4-4847-8E2A-8DB57A7622CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D36F76FF-A61F-40AE-BAEF-BA407FE76043}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MICRODADOS_ENEM_2020" sheetId="2" r:id="rId1"/>
@@ -1710,84 +1710,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1801,50 +1769,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1855,151 +1790,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,14 +1806,140 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2110,7 +2027,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2435,4893 +2352,4969 @@
   </sheetPr>
   <dimension ref="A1:F363"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A320" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2"/>
+    <col min="1" max="1" width="35.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1"/>
     <col min="4" max="4" width="48.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="63" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
         <v>12</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="42">
         <v>2</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="46">
+      <c r="A9" s="50"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="46">
+      <c r="A10" s="50"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="46">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="46">
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="46">
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="5">
         <v>6</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="46">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="5">
         <v>7</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="46">
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="5">
         <v>8</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="46">
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="5">
         <v>9</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="46">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="5">
         <v>10</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="46">
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="5">
         <v>11</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="46">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="5">
         <v>12</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="46">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="5">
         <v>13</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="46">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="5">
         <v>14</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="46">
+      <c r="A22" s="50"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="5">
         <v>15</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="46">
+      <c r="A23" s="50"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="5">
         <v>16</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="46">
+      <c r="A24" s="50"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="5">
         <v>17</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="46">
+      <c r="A25" s="50"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="5">
         <v>18</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="46">
+      <c r="A26" s="50"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="5">
         <v>19</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="46">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="5">
         <v>20</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="35">
         <v>1</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="5">
         <v>0</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="42">
         <v>1</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="39">
+      <c r="A31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="39">
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="39">
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="5">
         <v>3</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="27">
+      <c r="A34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="5">
         <v>4</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="5">
         <v>0</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="42">
         <v>1</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="36">
+      <c r="A36" s="50"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="5">
         <v>1</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="36">
+      <c r="A37" s="50"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="5">
         <v>2</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-    </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="36">
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="5">
         <v>3</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-    </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="36">
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="5">
         <v>4</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="36">
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="5">
         <v>5</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="5">
         <v>0</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="42">
         <v>1</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="36">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="5">
         <v>1</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="36">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="5">
         <v>2</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="36">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="5">
         <v>3</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="36">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="5">
         <v>4</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="35">
         <v>1</v>
       </c>
-      <c r="F46" s="67" t="s">
+      <c r="F46" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="5">
         <v>2</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-    </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="25">
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="5">
         <v>3</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-    </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="25">
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="5">
         <v>4</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="5">
         <v>0</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="42">
         <v>1</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="40">
+      <c r="A51" s="50"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="5">
         <v>1</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="5">
         <v>2019</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-    </row>
-    <row r="52" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="40">
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="5">
         <v>2</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="5">
         <v>2018</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="40">
+      <c r="A53" s="50"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="5">
         <v>3</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="5">
         <v>2017</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="40">
+      <c r="A54" s="50"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="5">
         <v>4</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="5">
         <v>2016</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="40">
+      <c r="A55" s="50"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="5">
         <v>5</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="5">
         <v>2015</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="40">
+      <c r="A56" s="50"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="5">
         <v>6</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="5">
         <v>2014</v>
       </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="40">
+      <c r="A57" s="50"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="5">
         <v>7</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="5">
         <v>2013</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="40">
+      <c r="A58" s="50"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="5">
         <v>8</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="5">
         <v>2012</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="40">
+      <c r="A59" s="50"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="5">
         <v>9</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D59" s="5">
         <v>2011</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="40">
+      <c r="A60" s="50"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="5">
         <v>10</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="5">
         <v>2010</v>
       </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="40">
+      <c r="A61" s="50"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="5">
         <v>11</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="5">
         <v>2009</v>
       </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="40">
+      <c r="A62" s="50"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="5">
         <v>12</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="5">
         <v>2008</v>
       </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="40">
+      <c r="A63" s="50"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="5">
         <v>13</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="5">
         <v>2007</v>
       </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="36">
+      <c r="A64" s="51"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="5">
         <v>14</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="5">
         <v>1</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="42">
         <v>1</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="F65" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="42">
+      <c r="A66" s="33"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="5">
         <v>2</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="42">
+      <c r="A67" s="33"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="5">
         <v>3</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="42">
+      <c r="A68" s="33"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="5">
         <v>4</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="5">
         <v>1</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="79">
+      <c r="E69" s="53">
         <v>1</v>
       </c>
-      <c r="F69" s="67" t="s">
+      <c r="F69" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="27">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="5">
         <v>2</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="67"/>
-    </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="27">
+      <c r="E70" s="53"/>
+      <c r="F70" s="35"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="5">
         <v>3</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E71" s="79"/>
-      <c r="F71" s="67"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="35"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="25">
+      <c r="C72" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="67">
+      <c r="E72" s="35">
         <v>1</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="5">
         <v>0</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="67">
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="35">
         <v>7</v>
       </c>
-      <c r="F75" s="67" t="s">
+      <c r="F75" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="23" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="23" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="23" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="23" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="24">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="7">
         <v>150</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="24">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7">
         <v>2</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F81" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="24">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="7">
         <v>2</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="25">
+      <c r="C83" s="5">
         <v>1</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="67">
+      <c r="E83" s="35">
         <v>1</v>
       </c>
-      <c r="F83" s="67" t="s">
+      <c r="F83" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="25">
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="5">
         <v>2</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="25">
+      <c r="A85" s="33"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="5">
         <v>3</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="5">
         <v>4</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="65" t="s">
+      <c r="A87" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="25">
+      <c r="C87" s="5">
         <v>1</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="67">
+      <c r="E87" s="35">
         <v>1</v>
       </c>
-      <c r="F87" s="67" t="s">
+      <c r="F87" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="5">
         <v>2</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="35">
+      <c r="C89" s="23">
         <v>1</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="D89" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="62">
+      <c r="E89" s="69">
         <v>1</v>
       </c>
-      <c r="F89" s="62" t="s">
+      <c r="F89" s="69" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="35">
+      <c r="A90" s="50"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="23">
         <v>2</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="35">
+      <c r="A91" s="50"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="23">
         <v>3</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="41">
+      <c r="A92" s="51"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="23">
         <v>4</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-    </row>
-    <row r="93" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="75"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="75"/>
-    </row>
-    <row r="94" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59" t="s">
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="80"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="67">
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="35">
         <v>7</v>
       </c>
-      <c r="F94" s="67" t="s">
+      <c r="F94" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="7" t="s">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50"/>
+      <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="80"/>
-      <c r="D95" s="80"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-    </row>
-    <row r="96" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
-      <c r="B96" s="7" t="s">
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="50"/>
+      <c r="B96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="80"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-    </row>
-    <row r="97" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
-      <c r="B97" s="7" t="s">
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="50"/>
+      <c r="B97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="80"/>
-      <c r="D97" s="80"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
-      <c r="B98" s="7" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="80"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="10">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="7">
         <v>150</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="10">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7">
         <v>2</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="10">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="7">
         <v>2</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="75" t="s">
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B102" s="75"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-    </row>
-    <row r="103" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="65" t="s">
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="42">
+      <c r="C103" s="5">
         <v>0</v>
       </c>
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E103" s="67">
+      <c r="E103" s="35">
         <v>1</v>
       </c>
-      <c r="F103" s="67" t="s">
+      <c r="F103" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="42">
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="5">
         <v>1</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-    </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="42">
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="5">
         <v>2</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-    </row>
-    <row r="106" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="65" t="s">
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B106" s="66" t="s">
+      <c r="B106" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C106" s="42">
+      <c r="C106" s="5">
         <v>0</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E106" s="67">
+      <c r="E106" s="35">
         <v>1</v>
       </c>
-      <c r="F106" s="67" t="s">
+      <c r="F106" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="42">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="33"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="5">
         <v>1</v>
       </c>
-      <c r="D107" s="42" t="s">
+      <c r="D107" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="42">
+      <c r="A108" s="33"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="5">
         <v>2</v>
       </c>
-      <c r="D108" s="42" t="s">
+      <c r="D108" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="65" t="s">
+      <c r="A109" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B109" s="66" t="s">
+      <c r="B109" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="42">
+      <c r="C109" s="5">
         <v>0</v>
       </c>
-      <c r="D109" s="42" t="s">
+      <c r="D109" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E109" s="67">
+      <c r="E109" s="35">
         <v>1</v>
       </c>
-      <c r="F109" s="67" t="s">
+      <c r="F109" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="42">
+      <c r="A110" s="33"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="5">
         <v>1</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-    </row>
-    <row r="111" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="42">
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="33"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="5">
         <v>2</v>
       </c>
-      <c r="D111" s="42" t="s">
+      <c r="D111" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="65" t="s">
+      <c r="A112" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B112" s="66" t="s">
+      <c r="B112" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C112" s="42">
+      <c r="C112" s="5">
         <v>0</v>
       </c>
-      <c r="D112" s="42" t="s">
+      <c r="D112" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E112" s="67">
+      <c r="E112" s="35">
         <v>1</v>
       </c>
-      <c r="F112" s="67" t="s">
+      <c r="F112" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="42">
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="33"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="5">
         <v>1</v>
       </c>
-      <c r="D113" s="42" t="s">
+      <c r="D113" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-    </row>
-    <row r="114" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="42">
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="5">
         <v>2</v>
       </c>
-      <c r="D114" s="42" t="s">
+      <c r="D114" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-    </row>
-    <row r="115" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="56" t="s">
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C115" s="42">
+      <c r="C115" s="5">
         <v>597</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E115" s="53">
+      <c r="E115" s="42">
         <v>3</v>
       </c>
-      <c r="F115" s="53" t="s">
+      <c r="F115" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="57"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="42">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="50"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="5">
         <v>598</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E116" s="54"/>
-      <c r="F116" s="54"/>
-    </row>
-    <row r="117" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="57"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="42">
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="50"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="5">
         <v>599</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E117" s="54"/>
-      <c r="F117" s="54"/>
-    </row>
-    <row r="118" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="42">
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="50"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="5">
         <v>600</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E118" s="54"/>
-      <c r="F118" s="54"/>
-    </row>
-    <row r="119" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="42">
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="50"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="5">
         <v>601</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="42">
+      <c r="A120" s="50"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="5">
         <v>602</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E120" s="54"/>
-      <c r="F120" s="54"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="42">
+      <c r="A121" s="50"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="5">
         <v>604</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-    </row>
-    <row r="122" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="57"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="42">
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="50"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="5">
         <v>605</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="57"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="42">
+      <c r="A123" s="50"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="5">
         <v>677</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-    </row>
-    <row r="124" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="57"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="42">
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="50"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="5">
         <v>678</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E124" s="54"/>
-      <c r="F124" s="54"/>
-    </row>
-    <row r="125" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="57"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="42">
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="50"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="5">
         <v>679</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E125" s="54"/>
-      <c r="F125" s="54"/>
-    </row>
-    <row r="126" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="57"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="42">
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="50"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="5">
         <v>680</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
-    </row>
-    <row r="127" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="57"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="42">
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="50"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="5">
         <v>684</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E127" s="54"/>
-      <c r="F127" s="54"/>
-    </row>
-    <row r="128" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="57"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="42">
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="50"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="5">
         <v>699</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54"/>
-    </row>
-    <row r="129" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="57"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="42">
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="50"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="5">
         <v>700</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E129" s="54"/>
-      <c r="F129" s="54"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="57"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="42">
+      <c r="A130" s="50"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="5">
         <v>701</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="58"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="42">
+      <c r="A131" s="51"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="5">
         <v>702</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="56" t="s">
+      <c r="A132" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="B132" s="59" t="s">
+      <c r="B132" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C132" s="42">
+      <c r="C132" s="5">
         <v>567</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E132" s="53">
+      <c r="E132" s="42">
         <v>3</v>
       </c>
-      <c r="F132" s="53" t="s">
+      <c r="F132" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="57"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="42">
+      <c r="A133" s="50"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="5">
         <v>568</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="54"/>
-      <c r="F133" s="54"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="57"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="42">
+      <c r="A134" s="50"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="5">
         <v>569</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="57"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="42">
+      <c r="A135" s="50"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="5">
         <v>570</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E135" s="54"/>
-      <c r="F135" s="54"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="57"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="42">
+      <c r="A136" s="50"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="5">
         <v>571</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E136" s="54"/>
-      <c r="F136" s="54"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="57"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="42">
+      <c r="A137" s="50"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="5">
         <v>572</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E137" s="54"/>
-      <c r="F137" s="54"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="57"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="42">
+      <c r="A138" s="50"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="5">
         <v>574</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D138" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E138" s="54"/>
-      <c r="F138" s="54"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="57"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="42">
+      <c r="A139" s="50"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="5">
         <v>575</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E139" s="54"/>
-      <c r="F139" s="54"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="57"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="42">
+      <c r="A140" s="50"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="5">
         <v>647</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D140" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="57"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="42">
+      <c r="A141" s="50"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="5">
         <v>648</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D141" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E141" s="54"/>
-      <c r="F141" s="54"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="57"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="42">
+      <c r="A142" s="50"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="5">
         <v>649</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D142" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E142" s="54"/>
-      <c r="F142" s="54"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="57"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="42">
+      <c r="A143" s="50"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="5">
         <v>650</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D143" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="42">
+      <c r="A144" s="50"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="5">
         <v>654</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D144" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E144" s="54"/>
-      <c r="F144" s="54"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="42">
+      <c r="A145" s="50"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="5">
         <v>687</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D145" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E145" s="54"/>
-      <c r="F145" s="54"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="57"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="42">
+      <c r="A146" s="50"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="5">
         <v>688</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E146" s="54"/>
-      <c r="F146" s="54"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="57"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="42">
+      <c r="A147" s="50"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="5">
         <v>689</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E147" s="54"/>
-      <c r="F147" s="54"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="58"/>
-      <c r="B148" s="61"/>
-      <c r="C148" s="42">
+      <c r="A148" s="51"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="5">
         <v>690</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E148" s="55"/>
-      <c r="F148" s="55"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="56" t="s">
+      <c r="A149" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B149" s="59" t="s">
+      <c r="B149" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="42">
+      <c r="C149" s="5">
         <v>577</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E149" s="53">
+      <c r="E149" s="42">
         <v>3</v>
       </c>
-      <c r="F149" s="53" t="s">
+      <c r="F149" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="57"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="42">
+      <c r="A150" s="50"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="5">
         <v>578</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D150" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="54"/>
-      <c r="F150" s="54"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="57"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="42">
+      <c r="A151" s="50"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="5">
         <v>579</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E151" s="54"/>
-      <c r="F151" s="54"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="57"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="42">
+      <c r="A152" s="50"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="5">
         <v>580</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E152" s="54"/>
-      <c r="F152" s="54"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="57"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="42">
+      <c r="A153" s="50"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="5">
         <v>581</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E153" s="54"/>
-      <c r="F153" s="54"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="57"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="42">
+      <c r="A154" s="50"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="5">
         <v>582</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D154" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E154" s="54"/>
-      <c r="F154" s="54"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="57"/>
-      <c r="B155" s="60"/>
-      <c r="C155" s="42">
+      <c r="A155" s="50"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="5">
         <v>584</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D155" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E155" s="54"/>
-      <c r="F155" s="54"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="57"/>
-      <c r="B156" s="60"/>
-      <c r="C156" s="42">
+      <c r="A156" s="50"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="5">
         <v>585</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="D156" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E156" s="54"/>
-      <c r="F156" s="54"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="57"/>
-      <c r="B157" s="60"/>
-      <c r="C157" s="42">
+      <c r="A157" s="50"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="5">
         <v>657</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E157" s="54"/>
-      <c r="F157" s="54"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="43"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="57"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="42">
+      <c r="A158" s="50"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="5">
         <v>658</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E158" s="54"/>
-      <c r="F158" s="54"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="57"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="42">
+      <c r="A159" s="50"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="5">
         <v>659</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E159" s="54"/>
-      <c r="F159" s="54"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="57"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="42">
+      <c r="A160" s="50"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="5">
         <v>660</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E160" s="54"/>
-      <c r="F160" s="54"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="57"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="42">
+      <c r="A161" s="50"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="5">
         <v>664</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E161" s="54"/>
-      <c r="F161" s="54"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="57"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="42">
+      <c r="A162" s="50"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="5">
         <v>691</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E162" s="54"/>
-      <c r="F162" s="54"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="57"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="42">
+      <c r="A163" s="50"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="5">
         <v>692</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E163" s="54"/>
-      <c r="F163" s="54"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="57"/>
-      <c r="B164" s="60"/>
-      <c r="C164" s="42">
+      <c r="A164" s="50"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="5">
         <v>693</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D164" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E164" s="54"/>
-      <c r="F164" s="54"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="58"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="42">
+      <c r="A165" s="51"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="5">
         <v>694</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="44"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="56" t="s">
+      <c r="A166" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="B166" s="59" t="s">
+      <c r="B166" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C166" s="42">
+      <c r="C166" s="5">
         <v>587</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E166" s="53">
+      <c r="E166" s="42">
         <v>3</v>
       </c>
-      <c r="F166" s="53" t="s">
+      <c r="F166" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="57"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="42">
+      <c r="A167" s="50"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="5">
         <v>588</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E167" s="54"/>
-      <c r="F167" s="54"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="57"/>
-      <c r="B168" s="60"/>
-      <c r="C168" s="42">
+      <c r="A168" s="50"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="5">
         <v>589</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E168" s="54"/>
-      <c r="F168" s="54"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
     </row>
     <row r="169" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="57"/>
-      <c r="B169" s="60"/>
-      <c r="C169" s="42">
+      <c r="A169" s="50"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="5">
         <v>590</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E169" s="54"/>
-      <c r="F169" s="54"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
     </row>
     <row r="170" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="57"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="42">
+      <c r="A170" s="50"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="5">
         <v>591</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D170" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E170" s="54"/>
-      <c r="F170" s="54"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="57"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="42">
+      <c r="A171" s="50"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="5">
         <v>592</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="57"/>
-      <c r="B172" s="60"/>
-      <c r="C172" s="42">
+      <c r="A172" s="50"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="5">
         <v>594</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E172" s="54"/>
-      <c r="F172" s="54"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="43"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="57"/>
-      <c r="B173" s="60"/>
-      <c r="C173" s="42">
+      <c r="A173" s="50"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="5">
         <v>595</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E173" s="54"/>
-      <c r="F173" s="54"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="57"/>
-      <c r="B174" s="60"/>
-      <c r="C174" s="42">
+      <c r="A174" s="50"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="5">
         <v>667</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D174" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E174" s="54"/>
-      <c r="F174" s="54"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="57"/>
-      <c r="B175" s="60"/>
-      <c r="C175" s="42">
+      <c r="A175" s="50"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="5">
         <v>668</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E175" s="54"/>
-      <c r="F175" s="54"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="57"/>
-      <c r="B176" s="60"/>
-      <c r="C176" s="42">
+      <c r="A176" s="50"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="5">
         <v>669</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E176" s="54"/>
-      <c r="F176" s="54"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="57"/>
-      <c r="B177" s="60"/>
-      <c r="C177" s="42">
+      <c r="A177" s="50"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="5">
         <v>670</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D177" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E177" s="54"/>
-      <c r="F177" s="54"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="57"/>
-      <c r="B178" s="60"/>
-      <c r="C178" s="42">
+      <c r="A178" s="50"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="5">
         <v>674</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E178" s="54"/>
-      <c r="F178" s="54"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="57"/>
-      <c r="B179" s="60"/>
-      <c r="C179" s="42">
+      <c r="A179" s="50"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="5">
         <v>695</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E179" s="54"/>
-      <c r="F179" s="54"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="57"/>
-      <c r="B180" s="60"/>
-      <c r="C180" s="42">
+      <c r="A180" s="50"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="5">
         <v>696</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-    </row>
-    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="57"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="42">
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="50"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="5">
         <v>697</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-    </row>
-    <row r="182" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="58"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="42">
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="51"/>
+      <c r="B182" s="56"/>
+      <c r="C182" s="5">
         <v>698</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-    </row>
-    <row r="183" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="22" t="s">
+      <c r="E182" s="44"/>
+      <c r="F182" s="44"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="10">
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="7">
         <v>9</v>
       </c>
-      <c r="F183" s="10" t="s">
+      <c r="F183" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="22" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="10">
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="7">
         <v>9</v>
       </c>
-      <c r="F184" s="10" t="s">
+      <c r="F184" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="22" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="10">
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="7">
         <v>9</v>
       </c>
-      <c r="F185" s="10" t="s">
+      <c r="F185" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="22" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="10">
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="7">
         <v>9</v>
       </c>
-      <c r="F186" s="10" t="s">
+      <c r="F186" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="22" t="s">
+      <c r="A187" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C187" s="15"/>
-      <c r="D187" s="36" t="s">
+      <c r="C187" s="12"/>
+      <c r="D187" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E187" s="10">
+      <c r="E187" s="7">
         <v>45</v>
       </c>
-      <c r="F187" s="10" t="s">
+      <c r="F187" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="22" t="s">
+      <c r="A188" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C188" s="15"/>
-      <c r="D188" s="36" t="s">
+      <c r="C188" s="12"/>
+      <c r="D188" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E188" s="10">
+      <c r="E188" s="7">
         <v>45</v>
       </c>
-      <c r="F188" s="10" t="s">
+      <c r="F188" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="22" t="s">
+      <c r="A189" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C189" s="15"/>
-      <c r="D189" s="36" t="s">
+      <c r="C189" s="12"/>
+      <c r="D189" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E189" s="10">
+      <c r="E189" s="7">
         <v>45</v>
       </c>
-      <c r="F189" s="10" t="s">
+      <c r="F189" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C190" s="15"/>
-      <c r="D190" s="36" t="s">
+      <c r="C190" s="12"/>
+      <c r="D190" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E190" s="7">
         <v>45</v>
       </c>
-      <c r="F190" s="10" t="s">
+      <c r="F190" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="65" t="s">
+      <c r="A191" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="66" t="s">
+      <c r="B191" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="5">
         <v>0</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D191" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E191" s="67">
+      <c r="E191" s="35">
         <v>1</v>
       </c>
-      <c r="F191" s="67" t="s">
+      <c r="F191" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="65"/>
-      <c r="B192" s="66"/>
-      <c r="C192" s="8">
+      <c r="A192" s="33"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="5">
         <v>1</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E192" s="67"/>
-      <c r="F192" s="67"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="35"/>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
+      <c r="A193" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="10">
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="7">
         <v>45</v>
       </c>
-      <c r="F193" s="10" t="s">
+      <c r="F193" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
+      <c r="A194" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B194" s="45" t="s">
+      <c r="B194" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="10">
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="7">
         <v>45</v>
       </c>
-      <c r="F194" s="10" t="s">
+      <c r="F194" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="22" t="s">
+      <c r="A195" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B195" s="17" t="s">
+      <c r="B195" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="10">
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="7">
         <v>50</v>
       </c>
-      <c r="F195" s="10" t="s">
+      <c r="F195" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="22" t="s">
+      <c r="A196" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="10">
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="7">
         <v>45</v>
       </c>
-      <c r="F196" s="10" t="s">
+      <c r="F196" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="87" t="s">
+      <c r="A197" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B197" s="88"/>
-      <c r="C197" s="88"/>
-      <c r="D197" s="88"/>
-      <c r="E197" s="88"/>
-      <c r="F197" s="89"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="46"/>
+      <c r="F197" s="47"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="56" t="s">
+      <c r="A198" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="B198" s="59" t="s">
+      <c r="B198" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C198" s="36">
+      <c r="C198" s="5">
         <v>1</v>
       </c>
-      <c r="D198" s="36" t="s">
+      <c r="D198" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E198" s="53">
+      <c r="E198" s="42">
         <v>1</v>
       </c>
-      <c r="F198" s="53" t="s">
+      <c r="F198" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="57"/>
-      <c r="B199" s="60"/>
-      <c r="C199" s="36">
+      <c r="A199" s="50"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="5">
         <v>2</v>
       </c>
-      <c r="D199" s="36" t="s">
+      <c r="D199" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="57"/>
-      <c r="B200" s="60"/>
-      <c r="C200" s="36">
+      <c r="A200" s="50"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="5">
         <v>3</v>
       </c>
-      <c r="D200" s="36" t="s">
+      <c r="D200" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="57"/>
-      <c r="B201" s="60"/>
-      <c r="C201" s="36">
+      <c r="A201" s="50"/>
+      <c r="B201" s="55"/>
+      <c r="C201" s="5">
         <v>4</v>
       </c>
-      <c r="D201" s="36" t="s">
+      <c r="D201" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E201" s="54"/>
-      <c r="F201" s="54"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="43"/>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="57"/>
-      <c r="B202" s="60"/>
-      <c r="C202" s="36">
+      <c r="A202" s="50"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="5">
         <v>6</v>
       </c>
-      <c r="D202" s="36" t="s">
+      <c r="D202" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E202" s="54"/>
-      <c r="F202" s="54"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="57"/>
-      <c r="B203" s="60"/>
-      <c r="C203" s="36">
+      <c r="A203" s="50"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="5">
         <v>7</v>
       </c>
-      <c r="D203" s="36" t="s">
+      <c r="D203" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E203" s="54"/>
-      <c r="F203" s="54"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43"/>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="57"/>
-      <c r="B204" s="60"/>
-      <c r="C204" s="36">
+      <c r="A204" s="50"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="5">
         <v>8</v>
       </c>
-      <c r="D204" s="36" t="s">
+      <c r="D204" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E204" s="54"/>
-      <c r="F204" s="54"/>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="57"/>
-      <c r="B205" s="60"/>
-      <c r="C205" s="36">
+      <c r="A205" s="50"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="5">
         <v>9</v>
       </c>
-      <c r="D205" s="36" t="s">
+      <c r="D205" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C206" s="33"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="10">
+      <c r="C206" s="21"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="7">
         <v>9</v>
       </c>
-      <c r="F206" s="10" t="s">
+      <c r="F206" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="13" t="s">
+      <c r="A207" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B207" s="34" t="s">
+      <c r="B207" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="C207" s="33"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="10">
+      <c r="C207" s="21"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="7">
         <v>9</v>
       </c>
-      <c r="F207" s="10" t="s">
+      <c r="F207" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B208" s="34" t="s">
+      <c r="B208" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C208" s="33"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="10">
+      <c r="C208" s="21"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="7">
         <v>9</v>
       </c>
-      <c r="F208" s="10" t="s">
+      <c r="F208" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="13" t="s">
+      <c r="A209" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B209" s="34" t="s">
+      <c r="B209" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C209" s="33"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="10">
+      <c r="C209" s="21"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="7">
         <v>9</v>
       </c>
-      <c r="F209" s="10" t="s">
+      <c r="F209" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B210" s="34" t="s">
+      <c r="B210" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C210" s="33"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="10">
+      <c r="C210" s="21"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="7">
         <v>9</v>
       </c>
-      <c r="F210" s="10" t="s">
+      <c r="F210" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="13" t="s">
+      <c r="A211" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="32" t="s">
+      <c r="B211" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="10">
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="7">
         <v>9</v>
       </c>
-      <c r="F211" s="10" t="s">
+      <c r="F211" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="87" t="s">
+      <c r="A212" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B212" s="88"/>
-      <c r="C212" s="88"/>
-      <c r="D212" s="88"/>
-      <c r="E212" s="88"/>
-      <c r="F212" s="89"/>
+      <c r="B212" s="46"/>
+      <c r="C212" s="46"/>
+      <c r="D212" s="46"/>
+      <c r="E212" s="46"/>
+      <c r="F212" s="47"/>
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="65" t="s">
+      <c r="A213" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B213" s="66" t="s">
+      <c r="B213" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D213" s="19" t="s">
+      <c r="D213" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E213" s="67">
+      <c r="E213" s="35">
         <v>1</v>
       </c>
-      <c r="F213" s="67" t="s">
+      <c r="F213" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="65"/>
-      <c r="B214" s="66"/>
-      <c r="C214" s="18" t="s">
+      <c r="A214" s="33"/>
+      <c r="B214" s="34"/>
+      <c r="C214" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D214" s="19" t="s">
+      <c r="D214" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E214" s="67"/>
-      <c r="F214" s="67"/>
+      <c r="E214" s="35"/>
+      <c r="F214" s="35"/>
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="65"/>
-      <c r="B215" s="66"/>
-      <c r="C215" s="18" t="s">
+      <c r="A215" s="33"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D215" s="19" t="s">
+      <c r="D215" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E215" s="67"/>
-      <c r="F215" s="67"/>
+      <c r="E215" s="35"/>
+      <c r="F215" s="35"/>
     </row>
     <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="65"/>
-      <c r="B216" s="66"/>
-      <c r="C216" s="18" t="s">
+      <c r="A216" s="33"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D216" s="19" t="s">
+      <c r="D216" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E216" s="67"/>
-      <c r="F216" s="67"/>
+      <c r="E216" s="35"/>
+      <c r="F216" s="35"/>
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="65"/>
-      <c r="B217" s="66"/>
-      <c r="C217" s="18" t="s">
+      <c r="A217" s="33"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D217" s="19" t="s">
+      <c r="D217" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E217" s="67"/>
-      <c r="F217" s="67"/>
+      <c r="E217" s="35"/>
+      <c r="F217" s="35"/>
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="65"/>
-      <c r="B218" s="66"/>
-      <c r="C218" s="18" t="s">
+      <c r="A218" s="33"/>
+      <c r="B218" s="34"/>
+      <c r="C218" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D218" s="19" t="s">
+      <c r="D218" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E218" s="67"/>
-      <c r="F218" s="67"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="35"/>
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="65"/>
-      <c r="B219" s="66"/>
-      <c r="C219" s="18" t="s">
+      <c r="A219" s="33"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D219" s="19" t="s">
+      <c r="D219" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E219" s="67"/>
-      <c r="F219" s="67"/>
+      <c r="E219" s="35"/>
+      <c r="F219" s="35"/>
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="65"/>
-      <c r="B220" s="66"/>
-      <c r="C220" s="18" t="s">
+      <c r="A220" s="33"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D220" s="19" t="s">
+      <c r="D220" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E220" s="67"/>
-      <c r="F220" s="67"/>
+      <c r="E220" s="35"/>
+      <c r="F220" s="35"/>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="65" t="s">
+      <c r="A221" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B221" s="66" t="s">
+      <c r="B221" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C221" s="18" t="s">
+      <c r="C221" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="D221" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E221" s="67">
+      <c r="E221" s="35">
         <v>1</v>
       </c>
-      <c r="F221" s="67" t="s">
+      <c r="F221" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="65"/>
-      <c r="B222" s="66"/>
-      <c r="C222" s="18" t="s">
+      <c r="A222" s="33"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D222" s="19" t="s">
+      <c r="D222" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E222" s="67"/>
-      <c r="F222" s="67"/>
+      <c r="E222" s="35"/>
+      <c r="F222" s="35"/>
     </row>
     <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="65"/>
-      <c r="B223" s="66"/>
-      <c r="C223" s="18" t="s">
+      <c r="A223" s="33"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D223" s="19" t="s">
+      <c r="D223" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E223" s="67"/>
-      <c r="F223" s="67"/>
+      <c r="E223" s="35"/>
+      <c r="F223" s="35"/>
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="65"/>
-      <c r="B224" s="66"/>
-      <c r="C224" s="18" t="s">
+      <c r="A224" s="33"/>
+      <c r="B224" s="34"/>
+      <c r="C224" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D224" s="19" t="s">
+      <c r="D224" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E224" s="67"/>
-      <c r="F224" s="67"/>
+      <c r="E224" s="35"/>
+      <c r="F224" s="35"/>
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="65"/>
-      <c r="B225" s="66"/>
-      <c r="C225" s="18" t="s">
+      <c r="A225" s="33"/>
+      <c r="B225" s="34"/>
+      <c r="C225" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D225" s="19" t="s">
+      <c r="D225" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E225" s="67"/>
-      <c r="F225" s="67"/>
+      <c r="E225" s="35"/>
+      <c r="F225" s="35"/>
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="65"/>
-      <c r="B226" s="66"/>
-      <c r="C226" s="18" t="s">
+      <c r="A226" s="33"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D226" s="19" t="s">
+      <c r="D226" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E226" s="67"/>
-      <c r="F226" s="67"/>
+      <c r="E226" s="35"/>
+      <c r="F226" s="35"/>
     </row>
     <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="65"/>
-      <c r="B227" s="66"/>
-      <c r="C227" s="18" t="s">
+      <c r="A227" s="33"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="D227" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E227" s="67"/>
-      <c r="F227" s="67"/>
+      <c r="E227" s="35"/>
+      <c r="F227" s="35"/>
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="65"/>
-      <c r="B228" s="66"/>
-      <c r="C228" s="18" t="s">
+      <c r="A228" s="33"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D228" s="19" t="s">
+      <c r="D228" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E228" s="67"/>
-      <c r="F228" s="67"/>
+      <c r="E228" s="35"/>
+      <c r="F228" s="35"/>
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="65" t="s">
+      <c r="A229" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B229" s="66" t="s">
+      <c r="B229" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D229" s="19" t="s">
+      <c r="D229" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E229" s="67">
+      <c r="E229" s="35">
         <v>1</v>
       </c>
-      <c r="F229" s="67" t="s">
+      <c r="F229" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="65"/>
-      <c r="B230" s="66"/>
-      <c r="C230" s="18" t="s">
+      <c r="A230" s="33"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D230" s="19" t="s">
+      <c r="D230" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E230" s="67"/>
-      <c r="F230" s="67"/>
+      <c r="E230" s="35"/>
+      <c r="F230" s="35"/>
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="65"/>
-      <c r="B231" s="66"/>
-      <c r="C231" s="18" t="s">
+      <c r="A231" s="33"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D231" s="19" t="s">
+      <c r="D231" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E231" s="67"/>
-      <c r="F231" s="67"/>
+      <c r="E231" s="35"/>
+      <c r="F231" s="35"/>
     </row>
     <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="65"/>
-      <c r="B232" s="66"/>
-      <c r="C232" s="18" t="s">
+      <c r="A232" s="33"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D232" s="19" t="s">
+      <c r="D232" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E232" s="67"/>
-      <c r="F232" s="67"/>
+      <c r="E232" s="35"/>
+      <c r="F232" s="35"/>
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="65"/>
-      <c r="B233" s="66"/>
-      <c r="C233" s="18" t="s">
+      <c r="A233" s="33"/>
+      <c r="B233" s="34"/>
+      <c r="C233" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D233" s="19" t="s">
+      <c r="D233" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E233" s="67"/>
-      <c r="F233" s="67"/>
+      <c r="E233" s="35"/>
+      <c r="F233" s="35"/>
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="65"/>
-      <c r="B234" s="66"/>
-      <c r="C234" s="18" t="s">
+      <c r="A234" s="33"/>
+      <c r="B234" s="34"/>
+      <c r="C234" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D234" s="19" t="s">
+      <c r="D234" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E234" s="67"/>
-      <c r="F234" s="67"/>
+      <c r="E234" s="35"/>
+      <c r="F234" s="35"/>
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="65" t="s">
+      <c r="A235" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B235" s="66" t="s">
+      <c r="B235" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="C235" s="27" t="s">
+      <c r="C235" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D235" s="26" t="s">
+      <c r="D235" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E235" s="67">
+      <c r="E235" s="35">
         <v>2</v>
       </c>
-      <c r="F235" s="67" t="s">
+      <c r="F235" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="65"/>
-      <c r="B236" s="66"/>
-      <c r="C236" s="27" t="s">
+      <c r="A236" s="33"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D236" s="26" t="s">
+      <c r="D236" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E236" s="67"/>
-      <c r="F236" s="67"/>
+      <c r="E236" s="35"/>
+      <c r="F236" s="35"/>
     </row>
     <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="65"/>
-      <c r="B237" s="66"/>
-      <c r="C237" s="27" t="s">
+      <c r="A237" s="33"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D237" s="26" t="s">
+      <c r="D237" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E237" s="67"/>
-      <c r="F237" s="67"/>
+      <c r="E237" s="35"/>
+      <c r="F237" s="35"/>
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="65"/>
-      <c r="B238" s="66"/>
-      <c r="C238" s="27" t="s">
+      <c r="A238" s="33"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D238" s="26" t="s">
+      <c r="D238" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E238" s="67"/>
-      <c r="F238" s="67"/>
+      <c r="E238" s="35"/>
+      <c r="F238" s="35"/>
     </row>
     <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="65"/>
-      <c r="B239" s="66"/>
-      <c r="C239" s="27" t="s">
+      <c r="A239" s="33"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D239" s="26" t="s">
+      <c r="D239" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E239" s="67"/>
-      <c r="F239" s="67"/>
+      <c r="E239" s="35"/>
+      <c r="F239" s="35"/>
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="65"/>
-      <c r="B240" s="66"/>
-      <c r="C240" s="27" t="s">
+      <c r="A240" s="33"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D240" s="26" t="s">
+      <c r="D240" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E240" s="67"/>
-      <c r="F240" s="67"/>
+      <c r="E240" s="35"/>
+      <c r="F240" s="35"/>
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="65" t="s">
+      <c r="A241" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B241" s="66" t="s">
+      <c r="B241" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C241" s="20">
+      <c r="C241" s="15">
         <v>1</v>
       </c>
-      <c r="D241" s="19" t="s">
+      <c r="D241" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E241" s="67">
+      <c r="E241" s="35">
         <v>2</v>
       </c>
-      <c r="F241" s="67" t="s">
+      <c r="F241" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="65"/>
-      <c r="B242" s="66"/>
-      <c r="C242" s="20">
+      <c r="A242" s="33"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="15">
         <v>2</v>
       </c>
-      <c r="D242" s="19" t="s">
+      <c r="D242" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E242" s="67"/>
-      <c r="F242" s="67"/>
+      <c r="E242" s="35"/>
+      <c r="F242" s="35"/>
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="65"/>
-      <c r="B243" s="66"/>
-      <c r="C243" s="20">
+      <c r="A243" s="33"/>
+      <c r="B243" s="34"/>
+      <c r="C243" s="15">
         <v>3</v>
       </c>
-      <c r="D243" s="19" t="s">
+      <c r="D243" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E243" s="67"/>
-      <c r="F243" s="67"/>
+      <c r="E243" s="35"/>
+      <c r="F243" s="35"/>
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="65"/>
-      <c r="B244" s="66"/>
-      <c r="C244" s="20">
+      <c r="A244" s="33"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="15">
         <v>4</v>
       </c>
-      <c r="D244" s="19" t="s">
+      <c r="D244" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E244" s="67"/>
-      <c r="F244" s="67"/>
+      <c r="E244" s="35"/>
+      <c r="F244" s="35"/>
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="65"/>
-      <c r="B245" s="66"/>
-      <c r="C245" s="20">
+      <c r="A245" s="33"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="15">
         <v>5</v>
       </c>
-      <c r="D245" s="19" t="s">
+      <c r="D245" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E245" s="67"/>
-      <c r="F245" s="67"/>
+      <c r="E245" s="35"/>
+      <c r="F245" s="35"/>
     </row>
     <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="65"/>
-      <c r="B246" s="66"/>
-      <c r="C246" s="20">
+      <c r="A246" s="33"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="15">
         <v>6</v>
       </c>
-      <c r="D246" s="19" t="s">
+      <c r="D246" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E246" s="67"/>
-      <c r="F246" s="67"/>
+      <c r="E246" s="35"/>
+      <c r="F246" s="35"/>
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="65"/>
-      <c r="B247" s="66"/>
-      <c r="C247" s="20">
+      <c r="A247" s="33"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="15">
         <v>7</v>
       </c>
-      <c r="D247" s="19" t="s">
+      <c r="D247" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E247" s="67"/>
-      <c r="F247" s="67"/>
+      <c r="E247" s="35"/>
+      <c r="F247" s="35"/>
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="65"/>
-      <c r="B248" s="66"/>
-      <c r="C248" s="20">
+      <c r="A248" s="33"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="15">
         <v>8</v>
       </c>
-      <c r="D248" s="19" t="s">
+      <c r="D248" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E248" s="67"/>
-      <c r="F248" s="67"/>
+      <c r="E248" s="35"/>
+      <c r="F248" s="35"/>
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="65"/>
-      <c r="B249" s="66"/>
-      <c r="C249" s="20">
+      <c r="A249" s="33"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="15">
         <v>9</v>
       </c>
-      <c r="D249" s="19" t="s">
+      <c r="D249" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E249" s="67"/>
-      <c r="F249" s="67"/>
+      <c r="E249" s="35"/>
+      <c r="F249" s="35"/>
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="65"/>
-      <c r="B250" s="66"/>
-      <c r="C250" s="20">
+      <c r="A250" s="33"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="15">
         <v>10</v>
       </c>
-      <c r="D250" s="19" t="s">
+      <c r="D250" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E250" s="67"/>
-      <c r="F250" s="67"/>
+      <c r="E250" s="35"/>
+      <c r="F250" s="35"/>
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="65"/>
-      <c r="B251" s="66"/>
-      <c r="C251" s="20">
+      <c r="A251" s="33"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="15">
         <v>11</v>
       </c>
-      <c r="D251" s="19" t="s">
+      <c r="D251" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E251" s="67"/>
-      <c r="F251" s="67"/>
+      <c r="E251" s="35"/>
+      <c r="F251" s="35"/>
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="65"/>
-      <c r="B252" s="66"/>
-      <c r="C252" s="20">
+      <c r="A252" s="33"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="15">
         <v>12</v>
       </c>
-      <c r="D252" s="19" t="s">
+      <c r="D252" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E252" s="67"/>
-      <c r="F252" s="67"/>
+      <c r="E252" s="35"/>
+      <c r="F252" s="35"/>
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="65"/>
-      <c r="B253" s="66"/>
-      <c r="C253" s="20">
+      <c r="A253" s="33"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="15">
         <v>13</v>
       </c>
-      <c r="D253" s="19" t="s">
+      <c r="D253" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E253" s="67"/>
-      <c r="F253" s="67"/>
+      <c r="E253" s="35"/>
+      <c r="F253" s="35"/>
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="65"/>
-      <c r="B254" s="66"/>
-      <c r="C254" s="20">
+      <c r="A254" s="33"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="15">
         <v>14</v>
       </c>
-      <c r="D254" s="19" t="s">
+      <c r="D254" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E254" s="67"/>
-      <c r="F254" s="67"/>
+      <c r="E254" s="35"/>
+      <c r="F254" s="35"/>
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="65"/>
-      <c r="B255" s="66"/>
-      <c r="C255" s="20">
+      <c r="A255" s="33"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="15">
         <v>15</v>
       </c>
-      <c r="D255" s="19" t="s">
+      <c r="D255" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E255" s="67"/>
-      <c r="F255" s="67"/>
+      <c r="E255" s="35"/>
+      <c r="F255" s="35"/>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="65"/>
-      <c r="B256" s="66"/>
-      <c r="C256" s="20">
+      <c r="A256" s="33"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="15">
         <v>16</v>
       </c>
-      <c r="D256" s="19" t="s">
+      <c r="D256" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E256" s="67"/>
-      <c r="F256" s="67"/>
+      <c r="E256" s="35"/>
+      <c r="F256" s="35"/>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="65"/>
-      <c r="B257" s="66"/>
-      <c r="C257" s="20">
+      <c r="A257" s="33"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="15">
         <v>17</v>
       </c>
-      <c r="D257" s="19" t="s">
+      <c r="D257" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E257" s="67"/>
-      <c r="F257" s="67"/>
+      <c r="E257" s="35"/>
+      <c r="F257" s="35"/>
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="65"/>
-      <c r="B258" s="66"/>
-      <c r="C258" s="20">
+      <c r="A258" s="33"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="15">
         <v>18</v>
       </c>
-      <c r="D258" s="19" t="s">
+      <c r="D258" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E258" s="67"/>
-      <c r="F258" s="67"/>
+      <c r="E258" s="35"/>
+      <c r="F258" s="35"/>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="65"/>
-      <c r="B259" s="66"/>
-      <c r="C259" s="20">
+      <c r="A259" s="33"/>
+      <c r="B259" s="34"/>
+      <c r="C259" s="15">
         <v>19</v>
       </c>
-      <c r="D259" s="19" t="s">
+      <c r="D259" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E259" s="67"/>
-      <c r="F259" s="67"/>
+      <c r="E259" s="35"/>
+      <c r="F259" s="35"/>
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="65"/>
-      <c r="B260" s="66"/>
-      <c r="C260" s="20">
+      <c r="A260" s="33"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="15">
         <v>20</v>
       </c>
-      <c r="D260" s="19" t="s">
+      <c r="D260" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E260" s="67"/>
-      <c r="F260" s="67"/>
+      <c r="E260" s="35"/>
+      <c r="F260" s="35"/>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="65" t="s">
+      <c r="A261" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B261" s="66" t="s">
+      <c r="B261" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C261" s="43" t="s">
+      <c r="C261" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D261" s="26" t="s">
+      <c r="D261" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="E261" s="67">
+      <c r="E261" s="35">
         <v>1</v>
       </c>
-      <c r="F261" s="67" t="s">
+      <c r="F261" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="65"/>
-      <c r="B262" s="66"/>
-      <c r="C262" s="43" t="s">
+      <c r="A262" s="33"/>
+      <c r="B262" s="34"/>
+      <c r="C262" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D262" s="26" t="s">
+      <c r="D262" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E262" s="67"/>
-      <c r="F262" s="67"/>
+      <c r="E262" s="35"/>
+      <c r="F262" s="35"/>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="65"/>
-      <c r="B263" s="66"/>
-      <c r="C263" s="43" t="s">
+      <c r="A263" s="33"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D263" s="26" t="s">
+      <c r="D263" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="E263" s="67"/>
-      <c r="F263" s="67"/>
+      <c r="E263" s="35"/>
+      <c r="F263" s="35"/>
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="65"/>
-      <c r="B264" s="66"/>
-      <c r="C264" s="43" t="s">
+      <c r="A264" s="33"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D264" s="26" t="s">
+      <c r="D264" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="E264" s="67"/>
-      <c r="F264" s="67"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="35"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="65"/>
-      <c r="B265" s="66"/>
-      <c r="C265" s="43" t="s">
+      <c r="A265" s="33"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D265" s="26" t="s">
+      <c r="D265" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="E265" s="67"/>
-      <c r="F265" s="67"/>
+      <c r="E265" s="35"/>
+      <c r="F265" s="35"/>
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="65"/>
-      <c r="B266" s="66"/>
-      <c r="C266" s="43" t="s">
+      <c r="A266" s="33"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D266" s="26" t="s">
+      <c r="D266" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E266" s="67"/>
-      <c r="F266" s="67"/>
+      <c r="E266" s="35"/>
+      <c r="F266" s="35"/>
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="65"/>
-      <c r="B267" s="66"/>
-      <c r="C267" s="43" t="s">
+      <c r="A267" s="33"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D267" s="26" t="s">
+      <c r="D267" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="E267" s="67"/>
-      <c r="F267" s="67"/>
+      <c r="E267" s="35"/>
+      <c r="F267" s="35"/>
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="65"/>
-      <c r="B268" s="66"/>
-      <c r="C268" s="43" t="s">
+      <c r="A268" s="33"/>
+      <c r="B268" s="34"/>
+      <c r="C268" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D268" s="26" t="s">
+      <c r="D268" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="E268" s="67"/>
-      <c r="F268" s="67"/>
+      <c r="E268" s="35"/>
+      <c r="F268" s="35"/>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="65"/>
-      <c r="B269" s="66"/>
-      <c r="C269" s="43" t="s">
+      <c r="A269" s="33"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D269" s="26" t="s">
+      <c r="D269" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="E269" s="67"/>
-      <c r="F269" s="67"/>
+      <c r="E269" s="35"/>
+      <c r="F269" s="35"/>
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="65"/>
-      <c r="B270" s="66"/>
-      <c r="C270" s="43" t="s">
+      <c r="A270" s="33"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D270" s="26" t="s">
+      <c r="D270" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E270" s="67"/>
-      <c r="F270" s="67"/>
+      <c r="E270" s="35"/>
+      <c r="F270" s="35"/>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="65"/>
-      <c r="B271" s="66"/>
-      <c r="C271" s="43" t="s">
+      <c r="A271" s="33"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D271" s="26" t="s">
+      <c r="D271" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E271" s="67"/>
-      <c r="F271" s="67"/>
+      <c r="E271" s="35"/>
+      <c r="F271" s="35"/>
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="65"/>
-      <c r="B272" s="66"/>
-      <c r="C272" s="43" t="s">
+      <c r="A272" s="33"/>
+      <c r="B272" s="34"/>
+      <c r="C272" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D272" s="26" t="s">
+      <c r="D272" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="E272" s="67"/>
-      <c r="F272" s="67"/>
+      <c r="E272" s="35"/>
+      <c r="F272" s="35"/>
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="65"/>
-      <c r="B273" s="66"/>
-      <c r="C273" s="43" t="s">
+      <c r="A273" s="33"/>
+      <c r="B273" s="34"/>
+      <c r="C273" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D273" s="26" t="s">
+      <c r="D273" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="E273" s="67"/>
-      <c r="F273" s="67"/>
+      <c r="E273" s="35"/>
+      <c r="F273" s="35"/>
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="65"/>
-      <c r="B274" s="66"/>
-      <c r="C274" s="43" t="s">
+      <c r="A274" s="33"/>
+      <c r="B274" s="34"/>
+      <c r="C274" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D274" s="26" t="s">
+      <c r="D274" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E274" s="67"/>
-      <c r="F274" s="67"/>
+      <c r="E274" s="35"/>
+      <c r="F274" s="35"/>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="65"/>
-      <c r="B275" s="66"/>
-      <c r="C275" s="43" t="s">
+      <c r="A275" s="33"/>
+      <c r="B275" s="34"/>
+      <c r="C275" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D275" s="26" t="s">
+      <c r="D275" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="E275" s="67"/>
-      <c r="F275" s="67"/>
+      <c r="E275" s="35"/>
+      <c r="F275" s="35"/>
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="65"/>
-      <c r="B276" s="66"/>
-      <c r="C276" s="43" t="s">
+      <c r="A276" s="33"/>
+      <c r="B276" s="34"/>
+      <c r="C276" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D276" s="26" t="s">
+      <c r="D276" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E276" s="67"/>
-      <c r="F276" s="67"/>
+      <c r="E276" s="35"/>
+      <c r="F276" s="35"/>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="65"/>
-      <c r="B277" s="66"/>
-      <c r="C277" s="43" t="s">
+      <c r="A277" s="33"/>
+      <c r="B277" s="34"/>
+      <c r="C277" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D277" s="26" t="s">
+      <c r="D277" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="E277" s="67"/>
-      <c r="F277" s="67"/>
+      <c r="E277" s="35"/>
+      <c r="F277" s="35"/>
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="65" t="s">
+      <c r="A278" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B278" s="66" t="s">
+      <c r="B278" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D278" s="19" t="s">
+      <c r="D278" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E278" s="67">
+      <c r="E278" s="35">
         <v>1</v>
       </c>
-      <c r="F278" s="67" t="s">
+      <c r="F278" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="65"/>
-      <c r="B279" s="66"/>
-      <c r="C279" s="18" t="s">
+      <c r="A279" s="33"/>
+      <c r="B279" s="34"/>
+      <c r="C279" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D279" s="19" t="s">
+      <c r="D279" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E279" s="67"/>
-      <c r="F279" s="67"/>
+      <c r="E279" s="35"/>
+      <c r="F279" s="35"/>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="65"/>
-      <c r="B280" s="66"/>
-      <c r="C280" s="18" t="s">
+      <c r="A280" s="33"/>
+      <c r="B280" s="34"/>
+      <c r="C280" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D280" s="19" t="s">
+      <c r="D280" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E280" s="67"/>
-      <c r="F280" s="67"/>
+      <c r="E280" s="35"/>
+      <c r="F280" s="35"/>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="65"/>
-      <c r="B281" s="66"/>
-      <c r="C281" s="18" t="s">
+      <c r="A281" s="33"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D281" s="19" t="s">
+      <c r="D281" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E281" s="67"/>
-      <c r="F281" s="67"/>
+      <c r="E281" s="35"/>
+      <c r="F281" s="35"/>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="65" t="s">
+      <c r="A282" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B282" s="66" t="s">
+      <c r="B282" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D282" s="19" t="s">
+      <c r="D282" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E282" s="67">
+      <c r="E282" s="35">
         <v>1</v>
       </c>
-      <c r="F282" s="67" t="s">
+      <c r="F282" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="65"/>
-      <c r="B283" s="66"/>
-      <c r="C283" s="18" t="s">
+      <c r="A283" s="33"/>
+      <c r="B283" s="34"/>
+      <c r="C283" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D283" s="19" t="s">
+      <c r="D283" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E283" s="67"/>
-      <c r="F283" s="67"/>
+      <c r="E283" s="35"/>
+      <c r="F283" s="35"/>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="65"/>
-      <c r="B284" s="66"/>
-      <c r="C284" s="18" t="s">
+      <c r="A284" s="33"/>
+      <c r="B284" s="34"/>
+      <c r="C284" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D284" s="19" t="s">
+      <c r="D284" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E284" s="67"/>
-      <c r="F284" s="67"/>
+      <c r="E284" s="35"/>
+      <c r="F284" s="35"/>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="65"/>
-      <c r="B285" s="66"/>
-      <c r="C285" s="18" t="s">
+      <c r="A285" s="33"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D285" s="19" t="s">
+      <c r="D285" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E285" s="67"/>
-      <c r="F285" s="67"/>
+      <c r="E285" s="35"/>
+      <c r="F285" s="35"/>
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="65"/>
-      <c r="B286" s="66"/>
-      <c r="C286" s="18" t="s">
+      <c r="A286" s="33"/>
+      <c r="B286" s="34"/>
+      <c r="C286" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D286" s="19" t="s">
+      <c r="D286" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E286" s="67"/>
-      <c r="F286" s="67"/>
+      <c r="E286" s="35"/>
+      <c r="F286" s="35"/>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="65" t="s">
+      <c r="A287" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B287" s="66" t="s">
+      <c r="B287" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="C287" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D287" s="19" t="s">
+      <c r="D287" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E287" s="67">
+      <c r="E287" s="35">
         <v>1</v>
       </c>
-      <c r="F287" s="67" t="s">
+      <c r="F287" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="65"/>
-      <c r="B288" s="66"/>
-      <c r="C288" s="18" t="s">
+      <c r="A288" s="33"/>
+      <c r="B288" s="34"/>
+      <c r="C288" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D288" s="19" t="s">
+      <c r="D288" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E288" s="67"/>
-      <c r="F288" s="67"/>
+      <c r="E288" s="35"/>
+      <c r="F288" s="35"/>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="65"/>
-      <c r="B289" s="66"/>
-      <c r="C289" s="18" t="s">
+      <c r="A289" s="33"/>
+      <c r="B289" s="34"/>
+      <c r="C289" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D289" s="19" t="s">
+      <c r="D289" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E289" s="67"/>
-      <c r="F289" s="67"/>
+      <c r="E289" s="35"/>
+      <c r="F289" s="35"/>
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="65"/>
-      <c r="B290" s="66"/>
-      <c r="C290" s="18" t="s">
+      <c r="A290" s="33"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D290" s="19" t="s">
+      <c r="D290" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E290" s="67"/>
-      <c r="F290" s="67"/>
+      <c r="E290" s="35"/>
+      <c r="F290" s="35"/>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="65"/>
-      <c r="B291" s="66"/>
-      <c r="C291" s="18" t="s">
+      <c r="A291" s="33"/>
+      <c r="B291" s="34"/>
+      <c r="C291" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D291" s="19" t="s">
+      <c r="D291" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E291" s="67"/>
-      <c r="F291" s="67"/>
+      <c r="E291" s="35"/>
+      <c r="F291" s="35"/>
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="65" t="s">
+      <c r="A292" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B292" s="66" t="s">
+      <c r="B292" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="C292" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D292" s="19" t="s">
+      <c r="D292" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E292" s="67">
+      <c r="E292" s="35">
         <v>1</v>
       </c>
-      <c r="F292" s="67" t="s">
+      <c r="F292" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="65"/>
-      <c r="B293" s="66"/>
-      <c r="C293" s="18" t="s">
+      <c r="A293" s="33"/>
+      <c r="B293" s="34"/>
+      <c r="C293" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D293" s="19" t="s">
+      <c r="D293" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E293" s="67"/>
-      <c r="F293" s="67"/>
+      <c r="E293" s="35"/>
+      <c r="F293" s="35"/>
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="65"/>
-      <c r="B294" s="66"/>
-      <c r="C294" s="18" t="s">
+      <c r="A294" s="33"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D294" s="19" t="s">
+      <c r="D294" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E294" s="67"/>
-      <c r="F294" s="67"/>
+      <c r="E294" s="35"/>
+      <c r="F294" s="35"/>
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="65"/>
-      <c r="B295" s="66"/>
-      <c r="C295" s="18" t="s">
+      <c r="A295" s="33"/>
+      <c r="B295" s="34"/>
+      <c r="C295" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D295" s="19" t="s">
+      <c r="D295" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E295" s="67"/>
-      <c r="F295" s="67"/>
+      <c r="E295" s="35"/>
+      <c r="F295" s="35"/>
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="65"/>
-      <c r="B296" s="66"/>
-      <c r="C296" s="18" t="s">
+      <c r="A296" s="33"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D296" s="19" t="s">
+      <c r="D296" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E296" s="67"/>
-      <c r="F296" s="67"/>
+      <c r="E296" s="35"/>
+      <c r="F296" s="35"/>
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="65" t="s">
+      <c r="A297" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B297" s="66" t="s">
+      <c r="B297" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="C297" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D297" s="19" t="s">
+      <c r="D297" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E297" s="67">
+      <c r="E297" s="35">
         <v>1</v>
       </c>
-      <c r="F297" s="67" t="s">
+      <c r="F297" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="65"/>
-      <c r="B298" s="66"/>
-      <c r="C298" s="18" t="s">
+      <c r="A298" s="33"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D298" s="19" t="s">
+      <c r="D298" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E298" s="67"/>
-      <c r="F298" s="67"/>
+      <c r="E298" s="35"/>
+      <c r="F298" s="35"/>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="65"/>
-      <c r="B299" s="66"/>
-      <c r="C299" s="18" t="s">
+      <c r="A299" s="33"/>
+      <c r="B299" s="34"/>
+      <c r="C299" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D299" s="19" t="s">
+      <c r="D299" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E299" s="67"/>
-      <c r="F299" s="67"/>
-    </row>
-    <row r="300" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="65"/>
-      <c r="B300" s="66"/>
-      <c r="C300" s="18" t="s">
+      <c r="E299" s="35"/>
+      <c r="F299" s="35"/>
+    </row>
+    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="33"/>
+      <c r="B300" s="34"/>
+      <c r="C300" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D300" s="19" t="s">
+      <c r="D300" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E300" s="67"/>
-      <c r="F300" s="67"/>
-    </row>
-    <row r="301" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="65"/>
-      <c r="B301" s="66"/>
-      <c r="C301" s="18" t="s">
+      <c r="E300" s="35"/>
+      <c r="F300" s="35"/>
+    </row>
+    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="33"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D301" s="19" t="s">
+      <c r="D301" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E301" s="67"/>
-      <c r="F301" s="67"/>
-    </row>
-    <row r="302" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="65" t="s">
+      <c r="E301" s="35"/>
+      <c r="F301" s="35"/>
+    </row>
+    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B302" s="66" t="s">
+      <c r="B302" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D302" s="19" t="s">
+      <c r="D302" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E302" s="67">
+      <c r="E302" s="35">
         <v>1</v>
       </c>
-      <c r="F302" s="67" t="s">
+      <c r="F302" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="65"/>
-      <c r="B303" s="66"/>
-      <c r="C303" s="18" t="s">
+      <c r="A303" s="33"/>
+      <c r="B303" s="34"/>
+      <c r="C303" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D303" s="19" t="s">
+      <c r="D303" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E303" s="67"/>
-      <c r="F303" s="67"/>
+      <c r="E303" s="35"/>
+      <c r="F303" s="35"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="65"/>
-      <c r="B304" s="66"/>
-      <c r="C304" s="18" t="s">
+      <c r="A304" s="33"/>
+      <c r="B304" s="34"/>
+      <c r="C304" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D304" s="19" t="s">
+      <c r="D304" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E304" s="67"/>
-      <c r="F304" s="67"/>
+      <c r="E304" s="35"/>
+      <c r="F304" s="35"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="65"/>
-      <c r="B305" s="66"/>
-      <c r="C305" s="18" t="s">
+      <c r="A305" s="33"/>
+      <c r="B305" s="34"/>
+      <c r="C305" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D305" s="19" t="s">
+      <c r="D305" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E305" s="67"/>
-      <c r="F305" s="67"/>
+      <c r="E305" s="35"/>
+      <c r="F305" s="35"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="65"/>
-      <c r="B306" s="66"/>
-      <c r="C306" s="18" t="s">
+      <c r="A306" s="33"/>
+      <c r="B306" s="34"/>
+      <c r="C306" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D306" s="19" t="s">
+      <c r="D306" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E306" s="67"/>
-      <c r="F306" s="67"/>
-    </row>
-    <row r="307" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="65" t="s">
+      <c r="E306" s="35"/>
+      <c r="F306" s="35"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B307" s="66" t="s">
+      <c r="B307" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C307" s="18" t="s">
+      <c r="C307" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D307" s="19" t="s">
+      <c r="D307" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E307" s="67">
+      <c r="E307" s="35">
         <v>1</v>
       </c>
-      <c r="F307" s="67" t="s">
+      <c r="F307" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="65"/>
-      <c r="B308" s="66"/>
-      <c r="C308" s="18" t="s">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="33"/>
+      <c r="B308" s="34"/>
+      <c r="C308" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D308" s="19" t="s">
+      <c r="D308" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E308" s="67"/>
-      <c r="F308" s="67"/>
+      <c r="E308" s="35"/>
+      <c r="F308" s="35"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="65"/>
-      <c r="B309" s="66"/>
-      <c r="C309" s="18" t="s">
+      <c r="A309" s="33"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D309" s="19" t="s">
+      <c r="D309" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E309" s="67"/>
-      <c r="F309" s="67"/>
+      <c r="E309" s="35"/>
+      <c r="F309" s="35"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="65"/>
-      <c r="B310" s="66"/>
-      <c r="C310" s="18" t="s">
+      <c r="A310" s="33"/>
+      <c r="B310" s="34"/>
+      <c r="C310" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D310" s="19" t="s">
+      <c r="D310" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E310" s="67"/>
-      <c r="F310" s="67"/>
+      <c r="E310" s="35"/>
+      <c r="F310" s="35"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="65"/>
-      <c r="B311" s="66"/>
-      <c r="C311" s="18" t="s">
+      <c r="A311" s="33"/>
+      <c r="B311" s="34"/>
+      <c r="C311" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D311" s="19" t="s">
+      <c r="D311" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E311" s="67"/>
-      <c r="F311" s="67"/>
+      <c r="E311" s="35"/>
+      <c r="F311" s="35"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="65" t="s">
+      <c r="A312" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B312" s="66" t="s">
+      <c r="B312" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D312" s="19" t="s">
+      <c r="D312" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E312" s="67">
+      <c r="E312" s="35">
         <v>1</v>
       </c>
-      <c r="F312" s="67" t="s">
+      <c r="F312" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="65"/>
-      <c r="B313" s="66"/>
-      <c r="C313" s="18" t="s">
+      <c r="A313" s="33"/>
+      <c r="B313" s="34"/>
+      <c r="C313" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D313" s="19" t="s">
+      <c r="D313" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E313" s="67"/>
-      <c r="F313" s="67"/>
+      <c r="E313" s="35"/>
+      <c r="F313" s="35"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="65"/>
-      <c r="B314" s="66"/>
-      <c r="C314" s="18" t="s">
+      <c r="A314" s="33"/>
+      <c r="B314" s="34"/>
+      <c r="C314" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D314" s="19" t="s">
+      <c r="D314" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E314" s="67"/>
-      <c r="F314" s="67"/>
+      <c r="E314" s="35"/>
+      <c r="F314" s="35"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="65"/>
-      <c r="B315" s="66"/>
-      <c r="C315" s="18" t="s">
+      <c r="A315" s="33"/>
+      <c r="B315" s="34"/>
+      <c r="C315" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D315" s="19" t="s">
+      <c r="D315" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E315" s="67"/>
-      <c r="F315" s="67"/>
+      <c r="E315" s="35"/>
+      <c r="F315" s="35"/>
     </row>
     <row r="316" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="65"/>
-      <c r="B316" s="66"/>
-      <c r="C316" s="18" t="s">
+      <c r="A316" s="33"/>
+      <c r="B316" s="34"/>
+      <c r="C316" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D316" s="19" t="s">
+      <c r="D316" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E316" s="67"/>
-      <c r="F316" s="67"/>
+      <c r="E316" s="35"/>
+      <c r="F316" s="35"/>
     </row>
     <row r="317" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="65" t="s">
+      <c r="A317" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B317" s="66" t="s">
+      <c r="B317" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C317" s="18" t="s">
+      <c r="C317" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D317" s="19" t="s">
+      <c r="D317" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E317" s="67">
+      <c r="E317" s="35">
         <v>1</v>
       </c>
-      <c r="F317" s="67" t="s">
+      <c r="F317" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="65"/>
-      <c r="B318" s="66"/>
-      <c r="C318" s="18" t="s">
+      <c r="A318" s="33"/>
+      <c r="B318" s="34"/>
+      <c r="C318" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D318" s="19" t="s">
+      <c r="D318" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E318" s="67"/>
-      <c r="F318" s="67"/>
+      <c r="E318" s="35"/>
+      <c r="F318" s="35"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="65"/>
-      <c r="B319" s="66"/>
-      <c r="C319" s="18" t="s">
+      <c r="A319" s="33"/>
+      <c r="B319" s="34"/>
+      <c r="C319" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D319" s="19" t="s">
+      <c r="D319" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E319" s="67"/>
-      <c r="F319" s="67"/>
+      <c r="E319" s="35"/>
+      <c r="F319" s="35"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="65"/>
-      <c r="B320" s="66"/>
-      <c r="C320" s="18" t="s">
+      <c r="A320" s="33"/>
+      <c r="B320" s="34"/>
+      <c r="C320" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D320" s="19" t="s">
+      <c r="D320" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E320" s="67"/>
-      <c r="F320" s="67"/>
+      <c r="E320" s="35"/>
+      <c r="F320" s="35"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="65"/>
-      <c r="B321" s="66"/>
-      <c r="C321" s="18" t="s">
+      <c r="A321" s="33"/>
+      <c r="B321" s="34"/>
+      <c r="C321" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D321" s="19" t="s">
+      <c r="D321" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E321" s="67"/>
-      <c r="F321" s="67"/>
+      <c r="E321" s="35"/>
+      <c r="F321" s="35"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="65" t="s">
+      <c r="A322" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B322" s="66" t="s">
+      <c r="B322" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C322" s="18" t="s">
+      <c r="C322" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D322" s="19" t="s">
+      <c r="D322" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E322" s="67">
+      <c r="E322" s="35">
         <v>1</v>
       </c>
-      <c r="F322" s="67" t="s">
+      <c r="F322" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="65"/>
-      <c r="B323" s="66"/>
-      <c r="C323" s="18" t="s">
+      <c r="A323" s="33"/>
+      <c r="B323" s="34"/>
+      <c r="C323" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D323" s="19" t="s">
+      <c r="D323" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E323" s="67"/>
-      <c r="F323" s="67"/>
+      <c r="E323" s="35"/>
+      <c r="F323" s="35"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="65"/>
-      <c r="B324" s="66"/>
-      <c r="C324" s="18" t="s">
+      <c r="A324" s="33"/>
+      <c r="B324" s="34"/>
+      <c r="C324" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D324" s="19" t="s">
+      <c r="D324" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E324" s="67"/>
-      <c r="F324" s="67"/>
+      <c r="E324" s="35"/>
+      <c r="F324" s="35"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="65"/>
-      <c r="B325" s="66"/>
-      <c r="C325" s="18" t="s">
+      <c r="A325" s="33"/>
+      <c r="B325" s="34"/>
+      <c r="C325" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D325" s="19" t="s">
+      <c r="D325" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E325" s="67"/>
-      <c r="F325" s="67"/>
+      <c r="E325" s="35"/>
+      <c r="F325" s="35"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="65"/>
-      <c r="B326" s="66"/>
-      <c r="C326" s="18" t="s">
+      <c r="A326" s="33"/>
+      <c r="B326" s="34"/>
+      <c r="C326" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D326" s="19" t="s">
+      <c r="D326" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E326" s="67"/>
-      <c r="F326" s="67"/>
+      <c r="E326" s="35"/>
+      <c r="F326" s="35"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="65" t="s">
+      <c r="A327" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B327" s="66" t="s">
+      <c r="B327" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C327" s="18" t="s">
+      <c r="C327" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D327" s="19" t="s">
+      <c r="D327" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E327" s="67">
+      <c r="E327" s="35">
         <v>1</v>
       </c>
-      <c r="F327" s="67" t="s">
+      <c r="F327" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="65"/>
-      <c r="B328" s="66"/>
-      <c r="C328" s="18" t="s">
+      <c r="A328" s="33"/>
+      <c r="B328" s="34"/>
+      <c r="C328" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D328" s="19" t="s">
+      <c r="D328" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E328" s="67"/>
-      <c r="F328" s="67"/>
+      <c r="E328" s="35"/>
+      <c r="F328" s="35"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="65"/>
-      <c r="B329" s="66"/>
-      <c r="C329" s="18" t="s">
+      <c r="A329" s="33"/>
+      <c r="B329" s="34"/>
+      <c r="C329" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D329" s="19" t="s">
+      <c r="D329" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E329" s="67"/>
-      <c r="F329" s="67"/>
+      <c r="E329" s="35"/>
+      <c r="F329" s="35"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="65"/>
-      <c r="B330" s="66"/>
-      <c r="C330" s="18" t="s">
+      <c r="A330" s="33"/>
+      <c r="B330" s="34"/>
+      <c r="C330" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D330" s="19" t="s">
+      <c r="D330" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E330" s="67"/>
-      <c r="F330" s="67"/>
+      <c r="E330" s="35"/>
+      <c r="F330" s="35"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="65"/>
-      <c r="B331" s="66"/>
-      <c r="C331" s="18" t="s">
+      <c r="A331" s="33"/>
+      <c r="B331" s="34"/>
+      <c r="C331" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D331" s="19" t="s">
+      <c r="D331" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E331" s="67"/>
-      <c r="F331" s="67"/>
+      <c r="E331" s="35"/>
+      <c r="F331" s="35"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="65" t="s">
+      <c r="A332" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B332" s="66" t="s">
+      <c r="B332" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="C332" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D332" s="18" t="s">
+      <c r="D332" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E332" s="67">
+      <c r="E332" s="35">
         <v>1</v>
       </c>
-      <c r="F332" s="67" t="s">
+      <c r="F332" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="65"/>
-      <c r="B333" s="66"/>
-      <c r="C333" s="18" t="s">
+      <c r="A333" s="33"/>
+      <c r="B333" s="34"/>
+      <c r="C333" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D333" s="18" t="s">
+      <c r="D333" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E333" s="67"/>
-      <c r="F333" s="67"/>
+      <c r="E333" s="35"/>
+      <c r="F333" s="35"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="65" t="s">
+      <c r="A334" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B334" s="66" t="s">
+      <c r="B334" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="C334" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D334" s="19" t="s">
+      <c r="D334" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E334" s="67">
+      <c r="E334" s="35">
         <v>1</v>
       </c>
-      <c r="F334" s="67" t="s">
+      <c r="F334" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="65"/>
-      <c r="B335" s="66"/>
-      <c r="C335" s="18" t="s">
+      <c r="A335" s="33"/>
+      <c r="B335" s="34"/>
+      <c r="C335" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D335" s="19" t="s">
+      <c r="D335" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E335" s="67"/>
-      <c r="F335" s="67"/>
+      <c r="E335" s="35"/>
+      <c r="F335" s="35"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="65"/>
-      <c r="B336" s="66"/>
-      <c r="C336" s="18" t="s">
+      <c r="A336" s="33"/>
+      <c r="B336" s="34"/>
+      <c r="C336" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D336" s="19" t="s">
+      <c r="D336" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E336" s="67"/>
-      <c r="F336" s="67"/>
+      <c r="E336" s="35"/>
+      <c r="F336" s="35"/>
     </row>
     <row r="337" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="65"/>
-      <c r="B337" s="66"/>
-      <c r="C337" s="18" t="s">
+      <c r="A337" s="33"/>
+      <c r="B337" s="34"/>
+      <c r="C337" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D337" s="19" t="s">
+      <c r="D337" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E337" s="67"/>
-      <c r="F337" s="67"/>
+      <c r="E337" s="35"/>
+      <c r="F337" s="35"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="65"/>
-      <c r="B338" s="66"/>
-      <c r="C338" s="18" t="s">
+      <c r="A338" s="33"/>
+      <c r="B338" s="34"/>
+      <c r="C338" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D338" s="19" t="s">
+      <c r="D338" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E338" s="67"/>
-      <c r="F338" s="67"/>
+      <c r="E338" s="35"/>
+      <c r="F338" s="35"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="65" t="s">
+      <c r="A339" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B339" s="66" t="s">
+      <c r="B339" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C339" s="18" t="s">
+      <c r="C339" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D339" s="18" t="s">
+      <c r="D339" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E339" s="67">
+      <c r="E339" s="35">
         <v>1</v>
       </c>
-      <c r="F339" s="67" t="s">
+      <c r="F339" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="65"/>
-      <c r="B340" s="66"/>
-      <c r="C340" s="18" t="s">
+      <c r="A340" s="33"/>
+      <c r="B340" s="34"/>
+      <c r="C340" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D340" s="18" t="s">
+      <c r="D340" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E340" s="67"/>
-      <c r="F340" s="67"/>
+      <c r="E340" s="35"/>
+      <c r="F340" s="35"/>
     </row>
     <row r="341" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="65" t="s">
+      <c r="A341" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B341" s="66" t="s">
+      <c r="B341" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C341" s="18" t="s">
+      <c r="C341" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D341" s="18" t="s">
+      <c r="D341" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E341" s="67">
+      <c r="E341" s="35">
         <v>1</v>
       </c>
-      <c r="F341" s="67" t="s">
+      <c r="F341" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="65"/>
-      <c r="B342" s="66"/>
-      <c r="C342" s="18" t="s">
+      <c r="A342" s="33"/>
+      <c r="B342" s="34"/>
+      <c r="C342" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D342" s="18" t="s">
+      <c r="D342" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E342" s="67"/>
-      <c r="F342" s="67"/>
+      <c r="E342" s="35"/>
+      <c r="F342" s="35"/>
     </row>
     <row r="343" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="65" t="s">
+      <c r="A343" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B343" s="66" t="s">
+      <c r="B343" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C343" s="18" t="s">
+      <c r="C343" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D343" s="19" t="s">
+      <c r="D343" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E343" s="67">
+      <c r="E343" s="35">
         <v>1</v>
       </c>
-      <c r="F343" s="67" t="s">
+      <c r="F343" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="65"/>
-      <c r="B344" s="66"/>
-      <c r="C344" s="18" t="s">
+      <c r="A344" s="33"/>
+      <c r="B344" s="34"/>
+      <c r="C344" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D344" s="19" t="s">
+      <c r="D344" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E344" s="67"/>
-      <c r="F344" s="67"/>
+      <c r="E344" s="35"/>
+      <c r="F344" s="35"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="65"/>
-      <c r="B345" s="66"/>
-      <c r="C345" s="18" t="s">
+      <c r="A345" s="33"/>
+      <c r="B345" s="34"/>
+      <c r="C345" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D345" s="19" t="s">
+      <c r="D345" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E345" s="67"/>
-      <c r="F345" s="67"/>
+      <c r="E345" s="35"/>
+      <c r="F345" s="35"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="65"/>
-      <c r="B346" s="66"/>
-      <c r="C346" s="18" t="s">
+      <c r="A346" s="33"/>
+      <c r="B346" s="34"/>
+      <c r="C346" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D346" s="19" t="s">
+      <c r="D346" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E346" s="67"/>
-      <c r="F346" s="67"/>
+      <c r="E346" s="35"/>
+      <c r="F346" s="35"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="65"/>
-      <c r="B347" s="66"/>
-      <c r="C347" s="18" t="s">
+      <c r="A347" s="33"/>
+      <c r="B347" s="34"/>
+      <c r="C347" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D347" s="19" t="s">
+      <c r="D347" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E347" s="67"/>
-      <c r="F347" s="67"/>
+      <c r="E347" s="35"/>
+      <c r="F347" s="35"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="65" t="s">
+      <c r="A348" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B348" s="66" t="s">
+      <c r="B348" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C348" s="18" t="s">
+      <c r="C348" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D348" s="18" t="s">
+      <c r="D348" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E348" s="67">
+      <c r="E348" s="35">
         <v>1</v>
       </c>
-      <c r="F348" s="67" t="s">
+      <c r="F348" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="65"/>
-      <c r="B349" s="66"/>
-      <c r="C349" s="18" t="s">
+      <c r="A349" s="33"/>
+      <c r="B349" s="34"/>
+      <c r="C349" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D349" s="18" t="s">
+      <c r="D349" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E349" s="67"/>
-      <c r="F349" s="67"/>
+      <c r="E349" s="35"/>
+      <c r="F349" s="35"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="65" t="s">
+      <c r="A350" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B350" s="66" t="s">
+      <c r="B350" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C350" s="18" t="s">
+      <c r="C350" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D350" s="19" t="s">
+      <c r="D350" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E350" s="67">
+      <c r="E350" s="35">
         <v>1</v>
       </c>
-      <c r="F350" s="67" t="s">
+      <c r="F350" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="65"/>
-      <c r="B351" s="66"/>
-      <c r="C351" s="18" t="s">
+      <c r="A351" s="33"/>
+      <c r="B351" s="34"/>
+      <c r="C351" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D351" s="19" t="s">
+      <c r="D351" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E351" s="67"/>
-      <c r="F351" s="67"/>
+      <c r="E351" s="35"/>
+      <c r="F351" s="35"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="65"/>
-      <c r="B352" s="66"/>
-      <c r="C352" s="18" t="s">
+      <c r="A352" s="33"/>
+      <c r="B352" s="34"/>
+      <c r="C352" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D352" s="19" t="s">
+      <c r="D352" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E352" s="67"/>
-      <c r="F352" s="67"/>
+      <c r="E352" s="35"/>
+      <c r="F352" s="35"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="65"/>
-      <c r="B353" s="66"/>
-      <c r="C353" s="18" t="s">
+      <c r="A353" s="33"/>
+      <c r="B353" s="34"/>
+      <c r="C353" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D353" s="19" t="s">
+      <c r="D353" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E353" s="67"/>
-      <c r="F353" s="67"/>
+      <c r="E353" s="35"/>
+      <c r="F353" s="35"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="65"/>
-      <c r="B354" s="66"/>
-      <c r="C354" s="18" t="s">
+      <c r="A354" s="33"/>
+      <c r="B354" s="34"/>
+      <c r="C354" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D354" s="19" t="s">
+      <c r="D354" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E354" s="67"/>
-      <c r="F354" s="67"/>
+      <c r="E354" s="35"/>
+      <c r="F354" s="35"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="65" t="s">
+      <c r="A355" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B355" s="66" t="s">
+      <c r="B355" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C355" s="18" t="s">
+      <c r="C355" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D355" s="18" t="s">
+      <c r="D355" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E355" s="67">
+      <c r="E355" s="35">
         <v>1</v>
       </c>
-      <c r="F355" s="67" t="s">
+      <c r="F355" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="65"/>
-      <c r="B356" s="66"/>
-      <c r="C356" s="18" t="s">
+      <c r="A356" s="33"/>
+      <c r="B356" s="34"/>
+      <c r="C356" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D356" s="18" t="s">
+      <c r="D356" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E356" s="67"/>
-      <c r="F356" s="67"/>
+      <c r="E356" s="35"/>
+      <c r="F356" s="35"/>
     </row>
     <row r="357" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="69" t="s">
+      <c r="A357" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="B357" s="69"/>
-      <c r="C357" s="69"/>
-      <c r="D357" s="69"/>
-      <c r="E357" s="69"/>
-      <c r="F357" s="69"/>
+      <c r="B357" s="68"/>
+      <c r="C357" s="68"/>
+      <c r="D357" s="68"/>
+      <c r="E357" s="68"/>
+      <c r="F357" s="68"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="70" t="s">
+      <c r="A358" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B358" s="70"/>
-      <c r="C358" s="70"/>
-      <c r="D358" s="70"/>
-      <c r="E358" s="70"/>
-      <c r="F358" s="70"/>
+      <c r="B358" s="67"/>
+      <c r="C358" s="67"/>
+      <c r="D358" s="67"/>
+      <c r="E358" s="67"/>
+      <c r="F358" s="67"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="70" t="s">
+      <c r="A359" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="B359" s="70"/>
-      <c r="C359" s="70"/>
-      <c r="D359" s="70"/>
-      <c r="E359" s="70"/>
-      <c r="F359" s="70"/>
+      <c r="B359" s="67"/>
+      <c r="C359" s="67"/>
+      <c r="D359" s="67"/>
+      <c r="E359" s="67"/>
+      <c r="F359" s="67"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="68" t="s">
+      <c r="A360" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="B360" s="68"/>
-      <c r="C360" s="68"/>
-      <c r="D360" s="68"/>
-      <c r="E360" s="68"/>
-      <c r="F360" s="68"/>
+      <c r="B360" s="67"/>
+      <c r="C360" s="67"/>
+      <c r="D360" s="67"/>
+      <c r="E360" s="67"/>
+      <c r="F360" s="67"/>
     </row>
     <row r="361" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="68" t="s">
+      <c r="A361" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="B361" s="68"/>
-      <c r="C361" s="68"/>
-      <c r="D361" s="68"/>
-      <c r="E361" s="68"/>
-      <c r="F361" s="68"/>
+      <c r="B361" s="67"/>
+      <c r="C361" s="67"/>
+      <c r="D361" s="67"/>
+      <c r="E361" s="67"/>
+      <c r="F361" s="67"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="68" t="s">
+      <c r="A362" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="B362" s="68"/>
-      <c r="C362" s="68"/>
-      <c r="D362" s="68"/>
-      <c r="E362" s="68"/>
-      <c r="F362" s="68"/>
+      <c r="B362" s="67"/>
+      <c r="C362" s="67"/>
+      <c r="D362" s="67"/>
+      <c r="E362" s="67"/>
+      <c r="F362" s="67"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="68" t="s">
+      <c r="A363" s="67" t="s">
         <v>357</v>
       </c>
-      <c r="B363" s="68"/>
-      <c r="C363" s="68"/>
-      <c r="D363" s="68"/>
-      <c r="E363" s="68"/>
-      <c r="F363" s="68"/>
+      <c r="B363" s="67"/>
+      <c r="C363" s="67"/>
+      <c r="D363" s="67"/>
+      <c r="E363" s="67"/>
+      <c r="F363" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="E355:E356"/>
-    <mergeCell ref="F355:F356"/>
-    <mergeCell ref="E348:E349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="A350:A354"/>
-    <mergeCell ref="A339:A340"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="B350:B354"/>
-    <mergeCell ref="E350:E354"/>
-    <mergeCell ref="F350:F354"/>
-    <mergeCell ref="A343:A347"/>
-    <mergeCell ref="B343:B347"/>
-    <mergeCell ref="E343:E347"/>
-    <mergeCell ref="F343:F347"/>
-    <mergeCell ref="B339:B340"/>
-    <mergeCell ref="B334:B338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="F334:F338"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="E332:E333"/>
-    <mergeCell ref="F332:F333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="A261:A277"/>
-    <mergeCell ref="B261:B277"/>
-    <mergeCell ref="E261:E277"/>
-    <mergeCell ref="F261:F277"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E302:E306"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="E297:E301"/>
-    <mergeCell ref="E50:E64"/>
-    <mergeCell ref="F50:F64"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="E312:E316"/>
-    <mergeCell ref="F312:F316"/>
-    <mergeCell ref="A317:A321"/>
-    <mergeCell ref="B317:B321"/>
-    <mergeCell ref="E317:E321"/>
-    <mergeCell ref="F317:F321"/>
-    <mergeCell ref="A307:A311"/>
+    <mergeCell ref="A149:A165"/>
+    <mergeCell ref="B149:B165"/>
+    <mergeCell ref="E149:E165"/>
+    <mergeCell ref="F149:F165"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="E115:E131"/>
+    <mergeCell ref="F115:F131"/>
+    <mergeCell ref="B115:B131"/>
+    <mergeCell ref="A115:A131"/>
+    <mergeCell ref="E132:E148"/>
+    <mergeCell ref="F132:F148"/>
+    <mergeCell ref="B132:B148"/>
+    <mergeCell ref="A132:A148"/>
+    <mergeCell ref="A221:A228"/>
+    <mergeCell ref="B221:B228"/>
+    <mergeCell ref="E221:E228"/>
+    <mergeCell ref="F221:F228"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="B229:B234"/>
+    <mergeCell ref="E229:E234"/>
+    <mergeCell ref="F229:F234"/>
+    <mergeCell ref="E282:E286"/>
+    <mergeCell ref="F282:F286"/>
+    <mergeCell ref="A327:A331"/>
+    <mergeCell ref="B327:B331"/>
+    <mergeCell ref="E327:E331"/>
+    <mergeCell ref="F327:F331"/>
+    <mergeCell ref="F302:F306"/>
+    <mergeCell ref="A312:A316"/>
+    <mergeCell ref="B312:B316"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="A322:A326"/>
+    <mergeCell ref="B322:B326"/>
+    <mergeCell ref="E322:E326"/>
+    <mergeCell ref="F322:F326"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="E287:E291"/>
+    <mergeCell ref="F287:F291"/>
+    <mergeCell ref="A292:A296"/>
+    <mergeCell ref="A297:A301"/>
+    <mergeCell ref="B297:B301"/>
+    <mergeCell ref="A302:A306"/>
+    <mergeCell ref="A363:F363"/>
+    <mergeCell ref="A357:F357"/>
+    <mergeCell ref="A359:F359"/>
+    <mergeCell ref="A358:F358"/>
+    <mergeCell ref="A360:F360"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A362:F362"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="E341:E342"/>
+    <mergeCell ref="F341:F342"/>
+    <mergeCell ref="A235:A240"/>
+    <mergeCell ref="B235:B240"/>
+    <mergeCell ref="E235:E240"/>
+    <mergeCell ref="F235:F240"/>
+    <mergeCell ref="A241:A260"/>
+    <mergeCell ref="B241:B260"/>
+    <mergeCell ref="E241:E260"/>
+    <mergeCell ref="F241:F260"/>
+    <mergeCell ref="F297:F301"/>
+    <mergeCell ref="B292:B296"/>
+    <mergeCell ref="E292:E296"/>
+    <mergeCell ref="F292:F296"/>
+    <mergeCell ref="A198:A205"/>
+    <mergeCell ref="B198:B205"/>
+    <mergeCell ref="E198:E205"/>
+    <mergeCell ref="F198:F205"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="E8:E27"/>
+    <mergeCell ref="F8:F27"/>
+    <mergeCell ref="E166:E182"/>
+    <mergeCell ref="F166:F182"/>
+    <mergeCell ref="A166:A182"/>
+    <mergeCell ref="B166:B182"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A64"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="F83:F86"/>
     <mergeCell ref="B307:B311"/>
     <mergeCell ref="E307:E311"/>
     <mergeCell ref="F307:F311"/>
@@ -7346,6 +7339,17 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="F106:F108"/>
     <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="E297:E301"/>
+    <mergeCell ref="E50:E64"/>
+    <mergeCell ref="F50:F64"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
     <mergeCell ref="A103:A105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="E103:E105"/>
@@ -7359,141 +7363,57 @@
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A50:A64"/>
-    <mergeCell ref="B50:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A198:A205"/>
-    <mergeCell ref="B198:B205"/>
-    <mergeCell ref="E198:E205"/>
-    <mergeCell ref="F198:F205"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="B8:B27"/>
-    <mergeCell ref="E8:E27"/>
-    <mergeCell ref="F8:F27"/>
-    <mergeCell ref="A235:A240"/>
-    <mergeCell ref="B235:B240"/>
-    <mergeCell ref="E235:E240"/>
-    <mergeCell ref="F235:F240"/>
-    <mergeCell ref="A241:A260"/>
-    <mergeCell ref="B241:B260"/>
-    <mergeCell ref="E241:E260"/>
-    <mergeCell ref="F241:F260"/>
-    <mergeCell ref="F297:F301"/>
-    <mergeCell ref="B292:B296"/>
-    <mergeCell ref="E292:E296"/>
-    <mergeCell ref="F292:F296"/>
-    <mergeCell ref="A363:F363"/>
-    <mergeCell ref="A357:F357"/>
-    <mergeCell ref="A359:F359"/>
-    <mergeCell ref="A358:F358"/>
-    <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A362:F362"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="E341:E342"/>
-    <mergeCell ref="F341:F342"/>
+    <mergeCell ref="B334:B338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="F334:F338"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="E332:E333"/>
+    <mergeCell ref="F332:F333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="A261:A277"/>
+    <mergeCell ref="B261:B277"/>
+    <mergeCell ref="E261:E277"/>
+    <mergeCell ref="F261:F277"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="E302:E306"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="E312:E316"/>
+    <mergeCell ref="F312:F316"/>
+    <mergeCell ref="A317:A321"/>
+    <mergeCell ref="B317:B321"/>
+    <mergeCell ref="E317:E321"/>
+    <mergeCell ref="F317:F321"/>
+    <mergeCell ref="A307:A311"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="E355:E356"/>
+    <mergeCell ref="F355:F356"/>
+    <mergeCell ref="E348:E349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="A350:A354"/>
+    <mergeCell ref="A339:A340"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="B350:B354"/>
+    <mergeCell ref="E350:E354"/>
+    <mergeCell ref="F350:F354"/>
+    <mergeCell ref="A343:A347"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="E343:E347"/>
+    <mergeCell ref="F343:F347"/>
+    <mergeCell ref="B339:B340"/>
     <mergeCell ref="E339:E340"/>
     <mergeCell ref="F339:F340"/>
-    <mergeCell ref="A327:A331"/>
-    <mergeCell ref="B327:B331"/>
-    <mergeCell ref="E327:E331"/>
-    <mergeCell ref="F327:F331"/>
-    <mergeCell ref="F302:F306"/>
-    <mergeCell ref="A312:A316"/>
-    <mergeCell ref="B312:B316"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="A322:A326"/>
-    <mergeCell ref="B322:B326"/>
-    <mergeCell ref="E322:E326"/>
-    <mergeCell ref="F322:F326"/>
-    <mergeCell ref="A221:A228"/>
-    <mergeCell ref="B221:B228"/>
-    <mergeCell ref="E221:E228"/>
-    <mergeCell ref="F221:F228"/>
-    <mergeCell ref="A229:A234"/>
-    <mergeCell ref="B229:B234"/>
-    <mergeCell ref="E229:E234"/>
-    <mergeCell ref="F229:F234"/>
-    <mergeCell ref="E282:E286"/>
-    <mergeCell ref="F282:F286"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="E287:E291"/>
-    <mergeCell ref="F287:F291"/>
-    <mergeCell ref="A292:A296"/>
-    <mergeCell ref="A297:A301"/>
-    <mergeCell ref="B297:B301"/>
-    <mergeCell ref="A302:A306"/>
-    <mergeCell ref="E166:E182"/>
-    <mergeCell ref="F166:F182"/>
-    <mergeCell ref="A166:A182"/>
-    <mergeCell ref="B166:B182"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="E115:E131"/>
-    <mergeCell ref="F115:F131"/>
-    <mergeCell ref="B115:B131"/>
-    <mergeCell ref="A115:A131"/>
-    <mergeCell ref="E132:E148"/>
-    <mergeCell ref="F132:F148"/>
-    <mergeCell ref="B132:B148"/>
-    <mergeCell ref="A132:A148"/>
-    <mergeCell ref="A149:A165"/>
-    <mergeCell ref="B149:B165"/>
-    <mergeCell ref="E149:E165"/>
-    <mergeCell ref="F149:F165"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7501,420 +7421,431 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="31" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="21" style="19" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="77" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-    </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25">
         <v>3</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="75">
         <v>2</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="49" t="s">
+    <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-    </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="49" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="49" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+    </row>
+    <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="48">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25">
         <v>5</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="48">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="75">
         <v>1</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="76" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="52">
+    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="97"/>
-    </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="99">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28">
         <v>40</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+    <row r="15" spans="1:6" s="16" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="51">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="25">
         <v>9</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:6" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="51">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="25">
         <v>9</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+    <row r="17" spans="1:6" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="51">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="25">
         <v>9</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="48">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25">
         <v>7</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="48">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25">
         <v>3</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="75">
         <v>1</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="76" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="44">
+      <c r="A21" s="75"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="75">
         <v>1</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="76" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="44">
+      <c r="A23" s="75"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="92"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="75">
         <v>1</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="76" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="44">
+      <c r="A25" s="75"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="92"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="E12:E13"/>
@@ -7927,22 +7858,13 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="F5:F8"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>